--- a/projects/uva/data/scenarios.xlsx
+++ b/projects/uva/data/scenarios.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BF7872-412A-4118-BA63-1078E1355954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SolverSettings" sheetId="2" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="34">
   <si>
     <t>Scenario</t>
   </si>
@@ -118,12 +119,18 @@
   </si>
   <si>
     <t>FLYWHL</t>
+  </si>
+  <si>
+    <t>MaxLoan_yrs</t>
+  </si>
+  <si>
+    <t>include_RPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,12 +140,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,9 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,19 +449,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -481,58 +495,58 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -549,7 +563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -566,7 +580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -581,6 +595,40 @@
       </c>
       <c r="E8">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -590,19 +638,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -636,7 +684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -653,7 +701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -670,7 +718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -687,7 +735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -704,7 +752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -727,19 +775,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -773,7 +821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -790,7 +838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -807,7 +855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -824,7 +872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -841,7 +889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -858,7 +906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -875,7 +923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -892,7 +940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -915,19 +963,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -961,7 +1009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,7 +1026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
